--- a/public/Templates/entrada.xlsx
+++ b/public/Templates/entrada.xlsx
@@ -25,7 +25,7 @@
     <t>Lote Container</t>
   </si>
   <si>
-    <t>Transportadora</t>
+    <t>Importadora</t>
   </si>
   <si>
     <t>Observação</t>
